--- a/Graficas HT5.xlsx
+++ b/Graficas HT5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pecos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Documents\GitHub\UNIVERSIDAD\EstructuraDeDatosHojas\DatosHT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73740126-7932-4616-9718-16A38685C0C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EEF5E1-F879-4359-9FD3-B6C3E9E222E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEF70A7-928F-4DEB-8A69-30581F46F2D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4BEF70A7-928F-4DEB-8A69-30581F46F2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -317,19 +317,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5079999999999991</c:v>
+                  <c:v>8.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9092000000000002</c:v>
+                  <c:v>8.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4386000000000001</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3853333333333326</c:v>
+                  <c:v>33.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6753499999999999</c:v>
+                  <c:v>68.260000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="568163256"/>
@@ -469,7 +469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="568166864"/>
@@ -510,7 +510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -586,7 +586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -668,19 +668,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.86</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.41</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.04</c:v>
+                  <c:v>15.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.25</c:v>
+                  <c:v>92.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.66</c:v>
+                  <c:v>136.91999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="608004608"/>
@@ -820,7 +820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="607999360"/>
@@ -861,7 +861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -937,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1019,19 +1019,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.92</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.19</c:v>
+                  <c:v>61.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.21</c:v>
+                  <c:v>183.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.27</c:v>
+                  <c:v>259.54000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="581591400"/>
@@ -1171,7 +1171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="581587136"/>
@@ -1212,7 +1212,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1288,7 +1288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1370,19 +1370,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.54</c:v>
+                  <c:v>2.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.91</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.03</c:v>
+                  <c:v>26.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.67</c:v>
+                  <c:v>64.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.31</c:v>
+                  <c:v>97.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,7 +1460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="608000016"/>
@@ -1522,7 +1522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="608002968"/>
@@ -1563,7 +1563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1639,7 +1639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1718,19 +1718,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8248000000000002</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9238</c:v>
+                  <c:v>7.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7432000000000007</c:v>
+                  <c:v>9.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.447733333333334</c:v>
+                  <c:v>74.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3670500000000008</c:v>
+                  <c:v>93.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,7 +1808,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="575212472"/>
@@ -1870,7 +1870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="575209520"/>
@@ -1911,7 +1911,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1992,7 +1992,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2071,19 +2071,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8555999999999999</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8282000000000007</c:v>
+                  <c:v>16.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4078999999999997</c:v>
+                  <c:v>50.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.1928</c:v>
+                  <c:v>134.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.808350000000001</c:v>
+                  <c:v>184.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,7 +2161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="568160304"/>
@@ -2223,7 +2223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="568167848"/>
@@ -2264,7 +2264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2340,7 +2340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2419,19 +2419,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5079999999999991</c:v>
+                  <c:v>8.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9092000000000002</c:v>
+                  <c:v>8.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4386000000000001</c:v>
+                  <c:v>8.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3853333333333326</c:v>
+                  <c:v>11.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.580399999999999</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="660473000"/>
@@ -2571,7 +2571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="660472672"/>
@@ -2612,7 +2612,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2688,7 +2688,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2767,19 +2767,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.3279999999999994</c:v>
+                  <c:v>7.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2822000000000005</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1353999999999989</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.014333333333333</c:v>
+                  <c:v>58.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.970649999999999</c:v>
+                  <c:v>131.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2857,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565873024"/>
@@ -2919,7 +2919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565872368"/>
@@ -2960,7 +2960,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3036,7 +3036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3115,19 +3115,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.0164</c:v>
+                  <c:v>9.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7311999999999994</c:v>
+                  <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6780999999999997</c:v>
+                  <c:v>7.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1869333333333332</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5741999999999994</c:v>
+                  <c:v>27.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,7 +3205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="575209848"/>
@@ -3267,7 +3267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="575207880"/>
@@ -3308,7 +3308,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3384,7 +3384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3466,19 +3466,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.82</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.92</c:v>
+                  <c:v>6.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.42</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.29</c:v>
+                  <c:v>16.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.08</c:v>
+                  <c:v>52.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="581593040"/>
@@ -3618,7 +3618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="581595664"/>
@@ -3659,7 +3659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3735,7 +3735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3817,19 +3817,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.66</c:v>
+                  <c:v>5.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.51</c:v>
+                  <c:v>9.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.33</c:v>
+                  <c:v>24.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.85</c:v>
+                  <c:v>118.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.01</c:v>
+                  <c:v>158.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565598304"/>
@@ -3969,7 +3969,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565600272"/>
@@ -4010,7 +4010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4086,7 +4086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4168,19 +4168,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.22</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.75</c:v>
+                  <c:v>5.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.78</c:v>
+                  <c:v>31.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.16</c:v>
+                  <c:v>53.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4258,7 +4258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="607980992"/>
@@ -4320,7 +4320,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="607977384"/>
@@ -4361,7 +4361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11780,24 +11780,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB7FE1F-78C6-4ECA-8869-1256B8AC7B33}">
   <dimension ref="B2:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11805,58 +11805,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <f>212.7/B4</f>
-        <v>8.5079999999999991</v>
+        <v>8.01</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>50</v>
       </c>
       <c r="C5" s="2">
-        <f>495.46/B5</f>
-        <v>9.9092000000000002</v>
+        <v>8.43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>100</v>
       </c>
       <c r="C6" s="2">
-        <f>643.86/B6</f>
-        <v>6.4386000000000001</v>
+        <v>6.86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>150</v>
       </c>
       <c r="C7" s="2">
-        <f>957.8/B7</f>
-        <v>6.3853333333333326</v>
+        <v>33.880000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>200</v>
       </c>
       <c r="C8" s="2">
-        <f>1735.07/B8</f>
-        <v>8.6753499999999999</v>
+        <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -11864,58 +11859,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <f>95.62/25</f>
-        <v>3.8248000000000002</v>
+        <v>3.74</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>50</v>
       </c>
       <c r="C22" s="2">
-        <f>196.19/50</f>
-        <v>3.9238</v>
+        <v>7.41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>100</v>
       </c>
       <c r="C23" s="2">
-        <f>574.32/B23</f>
-        <v>5.7432000000000007</v>
+        <v>9.84</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>150</v>
       </c>
       <c r="C24" s="2">
-        <f>1567.16/B24</f>
-        <v>10.447733333333334</v>
+        <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>200</v>
       </c>
       <c r="C25" s="2">
-        <f>1873.41/B25</f>
-        <v>9.3670500000000008</v>
+        <v>93.63</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -11923,58 +11913,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="2">
         <v>25</v>
       </c>
       <c r="C37" s="2">
-        <f>46.39/B37</f>
-        <v>1.8555999999999999</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="2">
         <v>50</v>
       </c>
       <c r="C38" s="2">
-        <f>341.41/B38</f>
-        <v>6.8282000000000007</v>
+        <v>16.32</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="2">
         <v>100</v>
       </c>
       <c r="C39" s="2">
-        <f>640.79/B39</f>
-        <v>6.4078999999999997</v>
+        <v>50.53</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="2">
         <v>150</v>
       </c>
       <c r="C40" s="2">
-        <f>1828.92/B40</f>
-        <v>12.1928</v>
+        <v>134.36000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="2">
         <v>200</v>
       </c>
       <c r="C41" s="2">
-        <f>2561.67/B41</f>
-        <v>12.808350000000001</v>
+        <v>184.37</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -11982,58 +11967,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="2">
         <v>25</v>
       </c>
       <c r="C54" s="2">
-        <f>212.7/B54</f>
-        <v>8.5079999999999991</v>
+        <v>8.01</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="2">
         <v>50</v>
       </c>
       <c r="C55" s="2">
-        <f>495.46/B55</f>
-        <v>9.9092000000000002</v>
+        <v>8.43</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2">
         <v>100</v>
       </c>
       <c r="C56" s="2">
-        <f>643.86/B56</f>
-        <v>6.4386000000000001</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2">
         <v>150</v>
       </c>
       <c r="C57" s="2">
-        <f>957.8/B57</f>
-        <v>6.3853333333333326</v>
+        <v>11.59</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="2">
         <v>200</v>
       </c>
       <c r="C58" s="2">
-        <f>1558.04/100</f>
-        <v>15.580399999999999</v>
+        <v>26.75</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
@@ -12041,58 +12021,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="2">
         <v>25</v>
       </c>
       <c r="C71" s="2">
-        <f>183.2/B71</f>
-        <v>7.3279999999999994</v>
+        <v>7.73</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="2">
         <v>50</v>
       </c>
       <c r="C72" s="2">
-        <f>314.11/B72</f>
-        <v>6.2822000000000005</v>
+        <v>8.75</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="2">
         <v>100</v>
       </c>
       <c r="C73" s="2">
-        <f>913.54/B73</f>
-        <v>9.1353999999999989</v>
+        <v>11.64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="2">
         <v>150</v>
       </c>
       <c r="C74" s="2">
-        <f>1502.15/B74</f>
-        <v>10.014333333333333</v>
+        <v>58.34</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="2">
         <v>200</v>
       </c>
       <c r="C75" s="2">
-        <f>4794.13/B75</f>
-        <v>23.970649999999999</v>
+        <v>131.85</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
@@ -12100,58 +12075,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="2">
         <v>25</v>
       </c>
       <c r="C87" s="2">
-        <f>175.41/B87</f>
-        <v>7.0164</v>
+        <v>9.89</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="2">
         <v>50</v>
       </c>
       <c r="C88" s="2">
-        <f>486.56/B88</f>
-        <v>9.7311999999999994</v>
+        <v>8.77</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="2">
         <v>100</v>
       </c>
       <c r="C89" s="2">
-        <f>667.81/B89</f>
-        <v>6.6780999999999997</v>
+        <v>7.56</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="2">
         <v>150</v>
       </c>
       <c r="C90" s="2">
-        <f>1078.04/B90</f>
-        <v>7.1869333333333332</v>
+        <v>12.05</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="2">
         <v>200</v>
       </c>
       <c r="C91" s="2">
-        <f>1314.84/B91</f>
-        <v>6.5741999999999994</v>
+        <v>27.79</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
@@ -12159,53 +12129,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="2">
         <v>25</v>
       </c>
       <c r="C103" s="2">
-        <v>3.82</v>
+        <v>3.74</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="2">
         <v>50</v>
       </c>
       <c r="C104" s="2">
-        <v>3.92</v>
+        <v>6.97</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="2">
         <v>100</v>
       </c>
       <c r="C105" s="2">
-        <v>3.42</v>
+        <v>4.16</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="2">
         <v>150</v>
       </c>
       <c r="C106" s="2">
-        <v>5.29</v>
+        <v>16.88</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="2">
         <v>200</v>
       </c>
       <c r="C107" s="2">
-        <v>9.08</v>
+        <v>52.01</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>1</v>
       </c>
@@ -12213,53 +12183,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="2">
         <v>25</v>
       </c>
       <c r="C119" s="2">
-        <v>4.66</v>
+        <v>5.94</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="2">
         <v>50</v>
       </c>
       <c r="C120" s="2">
-        <v>5.51</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="2">
         <v>100</v>
       </c>
       <c r="C121" s="2">
-        <v>12.33</v>
+        <v>24.95</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="2">
         <v>150</v>
       </c>
       <c r="C122" s="2">
-        <v>11.85</v>
+        <v>118.29</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123" s="2">
         <v>200</v>
       </c>
       <c r="C123" s="2">
-        <v>27.01</v>
+        <v>158.9</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>1</v>
       </c>
@@ -12267,53 +12237,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" s="2">
         <v>25</v>
       </c>
       <c r="C135" s="2">
-        <v>5.22</v>
+        <v>5.08</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" s="2">
         <v>50</v>
       </c>
       <c r="C136" s="2">
-        <v>4.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137" s="2">
         <v>100</v>
       </c>
       <c r="C137" s="2">
-        <v>3.75</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138" s="2">
         <v>150</v>
       </c>
       <c r="C138" s="2">
-        <v>3.78</v>
+        <v>31.41</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139" s="2">
         <v>200</v>
       </c>
       <c r="C139" s="2">
-        <v>7.16</v>
+        <v>53.44</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
@@ -12321,53 +12291,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151" s="2">
         <v>25</v>
       </c>
       <c r="C151" s="2">
-        <v>1.86</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152" s="2">
         <v>50</v>
       </c>
       <c r="C152" s="2">
-        <v>4.41</v>
+        <v>5.82</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153" s="2">
         <v>100</v>
       </c>
       <c r="C153" s="2">
-        <v>3.04</v>
+        <v>15.91</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="2">
         <v>150</v>
       </c>
       <c r="C154" s="2">
-        <v>4.25</v>
+        <v>92.73</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155" s="2">
         <v>200</v>
       </c>
       <c r="C155" s="2">
-        <v>12.66</v>
+        <v>136.91999999999999</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
@@ -12375,53 +12345,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B167" s="2">
         <v>25</v>
       </c>
       <c r="C167" s="2">
-        <v>2.0099999999999998</v>
+        <v>1.85</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B168" s="2">
         <v>50</v>
       </c>
       <c r="C168" s="2">
-        <v>5.92</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B169" s="2">
         <v>100</v>
       </c>
       <c r="C169" s="2">
-        <v>14.19</v>
+        <v>61.26</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B170" s="2">
         <v>150</v>
       </c>
       <c r="C170" s="2">
-        <v>17.21</v>
+        <v>183.37</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B171" s="2">
         <v>200</v>
       </c>
       <c r="C171" s="2">
-        <v>30.27</v>
+        <v>259.54000000000002</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B181" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
@@ -12429,48 +12399,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B183" s="2">
         <v>25</v>
       </c>
       <c r="C183" s="2">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B184" s="2">
         <v>50</v>
       </c>
       <c r="C184" s="2">
-        <v>2.91</v>
+        <v>11.8</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B185" s="2">
         <v>100</v>
       </c>
       <c r="C185" s="2">
-        <v>5.03</v>
+        <v>26.03</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B186" s="2">
         <v>150</v>
       </c>
       <c r="C186" s="2">
-        <v>6.67</v>
+        <v>64.37</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B187" s="2">
         <v>200</v>
       </c>
       <c r="C187" s="2">
-        <v>10.31</v>
+        <v>97.28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="B181:C181"/>
@@ -12478,11 +12453,6 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
